--- a/buncombe-county-courts/ACIS Case Record Layout.xlsx
+++ b/buncombe-county-courts/ACIS Case Record Layout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VSAKDR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgecollier/PycharmProjects/Asheville-Community-Data-Library/buncombe-county-courts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CF7B76-532F-0247-9782-B36AE80943CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="-53600" yWindow="-8960" windowWidth="23980" windowHeight="17940" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File Information" sheetId="26" r:id="rId1"/>
@@ -58,7 +59,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Spec. Conditions'!$A$1:$F$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">Witness!$A$1:$F$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4432,11 +4434,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000\ \-\ 000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Helv"/>
@@ -5161,7 +5163,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5251,15 +5253,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:colOff>355599</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1851660</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:colOff>6303982</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5267,6 +5269,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5281,11 +5286,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -5563,39 +5568,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="154.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="154.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="96.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="154.5546875" style="58"/>
-    <col min="3" max="3" width="154.5546875" style="59"/>
-    <col min="4" max="4" width="154.5546875" style="60"/>
-    <col min="5" max="5" width="154.5546875" style="68"/>
-    <col min="6" max="16384" width="154.5546875" style="57"/>
+    <col min="1" max="1" width="96.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="154.5" style="58"/>
+    <col min="3" max="3" width="154.5" style="59"/>
+    <col min="4" max="4" width="154.5" style="60"/>
+    <col min="5" max="5" width="154.5" style="68"/>
+    <col min="6" max="16384" width="154.5" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="165" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="32">
       <c r="A2" s="166" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="166" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="32">
       <c r="A4" s="166" t="s">
         <v>1195</v>
       </c>
@@ -5618,15 +5623,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:colOff>355600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1851660</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:colOff>6299200</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5641,7 +5646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5649,21 +5654,21 @@
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -5686,7 +5691,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="127" t="s">
         <v>333</v>
       </c>
@@ -5702,7 +5707,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -5722,7 +5727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -5744,7 +5749,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -5766,7 +5771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -5788,7 +5793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -5810,7 +5815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -5833,7 +5838,7 @@
       </c>
       <c r="M8" s="94"/>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -5855,7 +5860,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -5878,7 +5883,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -5900,7 +5905,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>335</v>
@@ -5922,7 +5927,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>337</v>
@@ -5944,7 +5949,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A14" s="19"/>
       <c r="B14" s="19" t="s">
         <v>461</v>
@@ -5966,124 +5971,124 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="47"/>
       <c r="B15" s="46"/>
       <c r="C15" s="45"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="47"/>
       <c r="B16" s="46"/>
       <c r="C16" s="45"/>
       <c r="H16" s="99"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="47"/>
       <c r="B17" s="46"/>
       <c r="C17" s="45"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="47"/>
       <c r="B18" s="46"/>
       <c r="C18" s="45"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="47"/>
       <c r="B19" s="46"/>
       <c r="C19" s="45"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="47"/>
       <c r="B20" s="46"/>
       <c r="C20" s="45"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="47"/>
       <c r="B21" s="46"/>
       <c r="C21" s="45"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="47"/>
       <c r="B22" s="46"/>
       <c r="C22" s="45"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="47"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="47"/>
       <c r="B24" s="46"/>
       <c r="C24" s="45"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="47"/>
       <c r="B25" s="46"/>
       <c r="C25" s="45"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="47"/>
       <c r="B26" s="46"/>
       <c r="C26" s="45"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="47"/>
       <c r="B27" s="46"/>
       <c r="C27" s="45"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="47"/>
       <c r="B28" s="46"/>
       <c r="C28" s="45"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="47"/>
       <c r="B29" s="46"/>
       <c r="C29" s="45"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="47"/>
       <c r="B30" s="46"/>
       <c r="C30" s="45"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="47"/>
       <c r="B31" s="46"/>
       <c r="C31" s="45"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="47"/>
       <c r="B32" s="46"/>
       <c r="C32" s="45"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="47"/>
       <c r="B33" s="46"/>
       <c r="C33" s="45"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="47"/>
       <c r="B34" s="46"/>
       <c r="C34" s="45"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="47"/>
       <c r="B35" s="46"/>
       <c r="C35" s="45"/>
@@ -6093,7 +6098,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -6106,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6114,21 +6119,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="51" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>404</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -6186,7 +6191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -6208,7 +6213,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -6230,7 +6235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -6252,7 +6257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -6274,7 +6279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -6296,7 +6301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -6318,7 +6323,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -6341,7 +6346,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -6363,7 +6368,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>406</v>
@@ -6385,7 +6390,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>408</v>
@@ -6407,7 +6412,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A14" s="19"/>
       <c r="B14" s="19" t="s">
         <v>410</v>
@@ -6429,7 +6434,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
         <v>461</v>
@@ -6451,7 +6456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8">
       <c r="H17" s="99"/>
     </row>
   </sheetData>
@@ -6459,7 +6464,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -6472,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6480,21 +6485,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="50.21875" style="51" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="50.1640625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>340</v>
       </c>
@@ -6532,7 +6537,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -6552,7 +6557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -6574,7 +6579,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -6596,7 +6601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -6618,7 +6623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -6640,7 +6645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -6662,7 +6667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -6684,7 +6689,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -6707,7 +6712,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -6729,7 +6734,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>341</v>
@@ -6751,7 +6756,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>343</v>
@@ -6773,7 +6778,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>345</v>
@@ -6795,7 +6800,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>347</v>
@@ -6817,7 +6822,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19" t="s">
@@ -6839,7 +6844,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6861,7 +6866,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="18"/>
       <c r="B18" s="18" t="s">
         <v>353</v>
@@ -6883,7 +6888,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="18"/>
       <c r="B19" s="18" t="s">
         <v>355</v>
@@ -6905,7 +6910,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
         <v>357</v>
@@ -6927,7 +6932,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>461</v>
@@ -6949,256 +6954,256 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="47"/>
       <c r="B22" s="46"/>
       <c r="C22" s="45"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="47"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
       <c r="H23" s="99"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="47"/>
       <c r="B24" s="46"/>
       <c r="C24" s="45"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="47"/>
       <c r="B25" s="46"/>
       <c r="C25" s="45"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="47"/>
       <c r="B26" s="46"/>
       <c r="C26" s="45"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="47"/>
       <c r="B27" s="46"/>
       <c r="C27" s="45"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="47"/>
       <c r="B28" s="46"/>
       <c r="C28" s="45"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="47"/>
       <c r="B29" s="46"/>
       <c r="C29" s="45"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="47"/>
       <c r="B30" s="46"/>
       <c r="C30" s="45"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="47"/>
       <c r="B31" s="46"/>
       <c r="C31" s="45"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="47"/>
       <c r="B32" s="46"/>
       <c r="C32" s="45"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="47"/>
       <c r="B33" s="46"/>
       <c r="C33" s="45"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="47"/>
       <c r="B34" s="46"/>
       <c r="C34" s="45"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="47"/>
       <c r="B35" s="46"/>
       <c r="C35" s="45"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="47"/>
       <c r="B36" s="46"/>
       <c r="C36" s="45"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="47"/>
       <c r="B37" s="46"/>
       <c r="C37" s="45"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="47"/>
       <c r="B38" s="46"/>
       <c r="C38" s="45"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="47"/>
       <c r="B39" s="46"/>
       <c r="C39" s="45"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="47"/>
       <c r="B40" s="46"/>
       <c r="C40" s="45"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="47"/>
       <c r="B41" s="46"/>
       <c r="C41" s="45"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="47"/>
       <c r="B42" s="46"/>
       <c r="C42" s="45"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="47"/>
       <c r="B43" s="46"/>
       <c r="C43" s="45"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="47"/>
       <c r="B44" s="46"/>
       <c r="C44" s="45"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="47"/>
       <c r="B45" s="46"/>
       <c r="C45" s="45"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="47"/>
       <c r="B46" s="46"/>
       <c r="C46" s="45"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="47"/>
       <c r="B47" s="46"/>
       <c r="C47" s="45"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="47"/>
       <c r="B48" s="46"/>
       <c r="C48" s="45"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="47"/>
       <c r="B49" s="46"/>
       <c r="C49" s="45"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="47"/>
       <c r="B50" s="46"/>
       <c r="C50" s="45"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="47"/>
       <c r="B51" s="46"/>
       <c r="C51" s="45"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="47"/>
       <c r="B52" s="46"/>
       <c r="C52" s="45"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="47"/>
       <c r="B53" s="46"/>
       <c r="C53" s="45"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="47"/>
       <c r="B54" s="46"/>
       <c r="C54" s="45"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="47"/>
       <c r="B55" s="46"/>
       <c r="C55" s="45"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="47"/>
       <c r="B56" s="46"/>
       <c r="C56" s="45"/>
       <c r="H56" s="22"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="47"/>
       <c r="B57" s="46"/>
       <c r="C57" s="45"/>
       <c r="H57" s="22"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="47"/>
       <c r="B58" s="46"/>
       <c r="C58" s="45"/>
       <c r="H58" s="22"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="47"/>
       <c r="B59" s="46"/>
       <c r="C59" s="45"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="47"/>
       <c r="B60" s="46"/>
       <c r="C60" s="45"/>
       <c r="H60" s="22"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="47"/>
       <c r="B61" s="46"/>
       <c r="C61" s="45"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="47"/>
       <c r="B62" s="46"/>
       <c r="C62" s="45"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="47"/>
       <c r="B63" s="46"/>
       <c r="C63" s="45"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="47"/>
       <c r="B64" s="46"/>
       <c r="C64" s="45"/>
@@ -7208,7 +7213,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -7221,7 +7226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7229,21 +7234,21 @@
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
     <col min="8" max="8" width="76.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.77734375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="9" max="9" width="29.83203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -7266,7 +7271,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>359</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -7302,7 +7307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -7324,7 +7329,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -7346,7 +7351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -7368,7 +7373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -7390,7 +7395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -7412,7 +7417,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -7434,7 +7439,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -7457,7 +7462,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -7479,7 +7484,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>361</v>
@@ -7501,7 +7506,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>363</v>
@@ -7523,7 +7528,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>365</v>
@@ -7545,7 +7550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>367</v>
@@ -7567,7 +7572,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>369</v>
@@ -7589,7 +7594,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>371</v>
@@ -7611,7 +7616,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>373</v>
@@ -7633,7 +7638,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>375</v>
@@ -7655,7 +7660,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="128">
       <c r="A20" s="18"/>
       <c r="B20" s="34" t="s">
         <v>377</v>
@@ -7677,7 +7682,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="96">
       <c r="A21" s="18"/>
       <c r="B21" s="34" t="s">
         <v>378</v>
@@ -7699,7 +7704,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="272">
       <c r="A22" s="18"/>
       <c r="B22" s="34" t="s">
         <v>379</v>
@@ -7721,7 +7726,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>380</v>
@@ -7743,7 +7748,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
         <v>382</v>
@@ -7765,7 +7770,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>384</v>
@@ -7787,7 +7792,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>461</v>
@@ -7809,7 +7814,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
         <v>386</v>
@@ -7831,7 +7836,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
         <v>388</v>
@@ -7853,7 +7858,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
         <v>390</v>
@@ -7875,7 +7880,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
         <v>392</v>
@@ -7897,7 +7902,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>394</v>
@@ -7919,7 +7924,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
@@ -7941,7 +7946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
@@ -7963,7 +7968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="s">
         <v>397</v>
@@ -7985,7 +7990,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16">
       <c r="A35" s="18"/>
       <c r="B35" s="19" t="s">
         <v>399</v>
@@ -8007,7 +8012,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>401</v>
@@ -8029,7 +8034,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A37" s="16"/>
       <c r="B37" s="19" t="s">
         <v>461</v>
@@ -8051,7 +8056,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="H39" s="99"/>
     </row>
   </sheetData>
@@ -8059,7 +8064,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -8072,7 +8077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8080,21 +8085,21 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
     <col min="8" max="8" width="76.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>411</v>
       </c>
@@ -8132,7 +8137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -8152,7 +8157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -8174,7 +8179,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -8196,7 +8201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -8218,7 +8223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -8240,7 +8245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -8262,7 +8267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -8284,7 +8289,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -8307,7 +8312,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -8329,7 +8334,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>413</v>
@@ -8351,7 +8356,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>415</v>
@@ -8373,7 +8378,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -8395,7 +8400,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -8417,7 +8422,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="96">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
         <v>422</v>
@@ -8439,7 +8444,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
         <v>461</v>
@@ -8461,382 +8466,382 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="47"/>
       <c r="B18" s="46"/>
       <c r="C18" s="45"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="47"/>
       <c r="B19" s="46"/>
       <c r="C19" s="45"/>
       <c r="H19" s="99"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="47"/>
       <c r="B20" s="46"/>
       <c r="C20" s="45"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="47"/>
       <c r="B21" s="46"/>
       <c r="C21" s="45"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="47"/>
       <c r="B22" s="46"/>
       <c r="C22" s="45"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="47"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="47"/>
       <c r="B24" s="46"/>
       <c r="C24" s="45"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="47"/>
       <c r="B25" s="46"/>
       <c r="C25" s="45"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="47"/>
       <c r="B26" s="46"/>
       <c r="C26" s="45"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="47"/>
       <c r="B27" s="46"/>
       <c r="C27" s="45"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="47"/>
       <c r="B28" s="46"/>
       <c r="C28" s="45"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="47"/>
       <c r="B29" s="46"/>
       <c r="C29" s="45"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="47"/>
       <c r="B30" s="46"/>
       <c r="C30" s="45"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="47"/>
       <c r="B31" s="46"/>
       <c r="C31" s="45"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="47"/>
       <c r="B32" s="46"/>
       <c r="C32" s="45"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="47"/>
       <c r="B33" s="46"/>
       <c r="C33" s="45"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="47"/>
       <c r="B34" s="46"/>
       <c r="C34" s="45"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="47"/>
       <c r="B35" s="46"/>
       <c r="C35" s="45"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="47"/>
       <c r="B36" s="46"/>
       <c r="C36" s="45"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="47"/>
       <c r="B37" s="46"/>
       <c r="C37" s="45"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="47"/>
       <c r="B38" s="46"/>
       <c r="C38" s="45"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="47"/>
       <c r="B39" s="46"/>
       <c r="C39" s="45"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="47"/>
       <c r="B40" s="46"/>
       <c r="C40" s="45"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="47"/>
       <c r="B41" s="46"/>
       <c r="C41" s="45"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="47"/>
       <c r="B42" s="46"/>
       <c r="C42" s="45"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="47"/>
       <c r="B43" s="46"/>
       <c r="C43" s="45"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="47"/>
       <c r="B44" s="46"/>
       <c r="C44" s="45"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="47"/>
       <c r="B45" s="46"/>
       <c r="C45" s="45"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="47"/>
       <c r="B46" s="46"/>
       <c r="C46" s="45"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="47"/>
       <c r="B47" s="46"/>
       <c r="C47" s="45"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="47"/>
       <c r="B48" s="46"/>
       <c r="C48" s="45"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="47"/>
       <c r="B49" s="46"/>
       <c r="C49" s="45"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="47"/>
       <c r="B50" s="46"/>
       <c r="C50" s="45"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="47"/>
       <c r="B51" s="46"/>
       <c r="C51" s="45"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="47"/>
       <c r="B52" s="46"/>
       <c r="C52" s="45"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="47"/>
       <c r="B53" s="46"/>
       <c r="C53" s="45"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="47"/>
       <c r="B54" s="46"/>
       <c r="C54" s="45"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="47"/>
       <c r="B55" s="46"/>
       <c r="C55" s="45"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="47"/>
       <c r="B56" s="46"/>
       <c r="C56" s="45"/>
       <c r="H56" s="22"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="47"/>
       <c r="B57" s="46"/>
       <c r="C57" s="45"/>
       <c r="H57" s="22"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="47"/>
       <c r="B58" s="46"/>
       <c r="C58" s="45"/>
       <c r="H58" s="22"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="47"/>
       <c r="B59" s="46"/>
       <c r="C59" s="45"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="47"/>
       <c r="B60" s="46"/>
       <c r="C60" s="45"/>
       <c r="H60" s="22"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="47"/>
       <c r="B61" s="46"/>
       <c r="C61" s="45"/>
       <c r="H61" s="22"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="47"/>
       <c r="B62" s="46"/>
       <c r="C62" s="45"/>
       <c r="H62" s="22"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="47"/>
       <c r="B63" s="46"/>
       <c r="C63" s="45"/>
       <c r="H63" s="22"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="47"/>
       <c r="B64" s="46"/>
       <c r="C64" s="45"/>
       <c r="H64" s="22"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="47"/>
       <c r="B65" s="46"/>
       <c r="C65" s="45"/>
       <c r="H65" s="22"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="47"/>
       <c r="B66" s="46"/>
       <c r="C66" s="45"/>
       <c r="H66" s="22"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="47"/>
       <c r="B67" s="46"/>
       <c r="C67" s="45"/>
       <c r="H67" s="22"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="47"/>
       <c r="B68" s="46"/>
       <c r="C68" s="45"/>
       <c r="H68" s="22"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="47"/>
       <c r="B69" s="46"/>
       <c r="C69" s="45"/>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="47"/>
       <c r="B70" s="46"/>
       <c r="C70" s="45"/>
       <c r="H70" s="22"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="47"/>
       <c r="B71" s="46"/>
       <c r="C71" s="45"/>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="47"/>
       <c r="B72" s="46"/>
       <c r="C72" s="45"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="47"/>
       <c r="B73" s="46"/>
       <c r="C73" s="45"/>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="47"/>
       <c r="B74" s="46"/>
       <c r="C74" s="45"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="47"/>
       <c r="B75" s="46"/>
       <c r="C75" s="45"/>
       <c r="H75" s="22"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="47"/>
       <c r="B76" s="46"/>
       <c r="C76" s="45"/>
       <c r="H76" s="22"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="47"/>
       <c r="B77" s="46"/>
       <c r="C77" s="45"/>
       <c r="H77" s="22"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="47"/>
       <c r="B78" s="46"/>
       <c r="C78" s="45"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="47"/>
       <c r="B79" s="46"/>
       <c r="C79" s="45"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="47"/>
       <c r="B80" s="46"/>
       <c r="C80" s="45"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="47"/>
       <c r="B81" s="46"/>
       <c r="C81" s="45"/>
@@ -8846,7 +8851,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -8859,7 +8864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8867,21 +8872,21 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -8904,7 +8909,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>423</v>
       </c>
@@ -8920,7 +8925,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -8940,7 +8945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -8962,7 +8967,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -8984,7 +8989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -9006,7 +9011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -9028,7 +9033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -9050,7 +9055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -9072,7 +9077,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -9095,7 +9100,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -9117,7 +9122,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="112">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
         <v>832</v>
@@ -9139,7 +9144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>425</v>
@@ -9161,7 +9166,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="128">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>427</v>
@@ -9183,7 +9188,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>428</v>
@@ -9205,7 +9210,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>430</v>
@@ -9227,7 +9232,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>461</v>
@@ -9249,7 +9254,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>431</v>
@@ -9271,7 +9276,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -9293,7 +9298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -9315,7 +9320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="16">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>434</v>
@@ -9337,7 +9342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="16">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>435</v>
@@ -9359,7 +9364,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="16">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>437</v>
@@ -9381,7 +9386,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="16">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>439</v>
@@ -9403,7 +9408,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>461</v>
@@ -9425,202 +9430,202 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="47"/>
       <c r="B26" s="46"/>
       <c r="C26" s="45"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="47"/>
       <c r="B27" s="46"/>
       <c r="C27" s="45"/>
       <c r="H27" s="170"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="47"/>
       <c r="B28" s="46"/>
       <c r="C28" s="45"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="47"/>
       <c r="B29" s="46"/>
       <c r="C29" s="45"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="47"/>
       <c r="B30" s="46"/>
       <c r="C30" s="45"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="47"/>
       <c r="B31" s="46"/>
       <c r="C31" s="45"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="47"/>
       <c r="B32" s="46"/>
       <c r="C32" s="45"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="47"/>
       <c r="B33" s="46"/>
       <c r="C33" s="45"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="47"/>
       <c r="B34" s="46"/>
       <c r="C34" s="45"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="47"/>
       <c r="B35" s="46"/>
       <c r="C35" s="45"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="47"/>
       <c r="B36" s="46"/>
       <c r="C36" s="45"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="47"/>
       <c r="B37" s="46"/>
       <c r="C37" s="45"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="47"/>
       <c r="B38" s="46"/>
       <c r="C38" s="45"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="47"/>
       <c r="B39" s="46"/>
       <c r="C39" s="45"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="47"/>
       <c r="B40" s="46"/>
       <c r="C40" s="45"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="47"/>
       <c r="B41" s="46"/>
       <c r="C41" s="45"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="47"/>
       <c r="B42" s="46"/>
       <c r="C42" s="45"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="47"/>
       <c r="B43" s="46"/>
       <c r="C43" s="45"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="47"/>
       <c r="B44" s="46"/>
       <c r="C44" s="45"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="47"/>
       <c r="B45" s="46"/>
       <c r="C45" s="45"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="47"/>
       <c r="B46" s="46"/>
       <c r="C46" s="45"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="47"/>
       <c r="B47" s="46"/>
       <c r="C47" s="45"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="47"/>
       <c r="B48" s="46"/>
       <c r="C48" s="45"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="47"/>
       <c r="B49" s="46"/>
       <c r="C49" s="45"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="47"/>
       <c r="B50" s="46"/>
       <c r="C50" s="45"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="47"/>
       <c r="B51" s="46"/>
       <c r="C51" s="45"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="47"/>
       <c r="B52" s="46"/>
       <c r="C52" s="45"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="47"/>
       <c r="B53" s="46"/>
       <c r="C53" s="45"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="47"/>
       <c r="B54" s="46"/>
       <c r="C54" s="45"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="47"/>
       <c r="B55" s="46"/>
       <c r="C55" s="45"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="47"/>
       <c r="B56" s="46"/>
       <c r="C56" s="45"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="47"/>
       <c r="B57" s="46"/>
       <c r="C57" s="45"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="47"/>
       <c r="B58" s="46"/>
       <c r="C58" s="45"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="47"/>
       <c r="B59" s="46"/>
       <c r="C59" s="45"/>
@@ -9630,7 +9635,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -9643,27 +9648,27 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="28.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -9679,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="41" t="s">
         <v>846</v>
       </c>
@@ -9694,7 +9699,7 @@
       </c>
       <c r="G2" s="129"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -9708,7 +9713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -9724,7 +9729,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -9740,7 +9745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -9756,7 +9761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -9772,7 +9777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -9788,7 +9793,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -9804,7 +9809,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -9821,7 +9826,7 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="144">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -9837,7 +9842,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
@@ -9853,7 +9858,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="47"/>
       <c r="B13" s="46"/>
       <c r="C13" s="13" t="s">
@@ -9869,7 +9874,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="47"/>
       <c r="B14" s="46"/>
       <c r="C14" s="13" t="s">
@@ -9885,7 +9890,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="47"/>
       <c r="B15" s="46"/>
       <c r="C15" s="13" t="s">
@@ -9901,7 +9906,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="47"/>
       <c r="B16" s="46"/>
       <c r="C16" s="13" t="s">
@@ -9917,7 +9922,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="47"/>
       <c r="B17" s="46"/>
       <c r="C17" s="13" t="s">
@@ -9933,7 +9938,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="47"/>
       <c r="B18" s="46"/>
       <c r="C18" s="13" t="s">
@@ -9949,7 +9954,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="47"/>
       <c r="B19" s="46"/>
       <c r="C19" s="13" t="s">
@@ -9965,7 +9970,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="47"/>
       <c r="B20" s="46"/>
       <c r="C20" s="13" t="s">
@@ -9981,7 +9986,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="47"/>
       <c r="B21" s="46"/>
       <c r="C21" s="13" t="s">
@@ -9997,7 +10002,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="47"/>
       <c r="B22" s="46"/>
       <c r="C22" s="13" t="s">
@@ -10013,7 +10018,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="47"/>
       <c r="B23" s="46"/>
       <c r="C23" s="13" t="s">
@@ -10029,7 +10034,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="47"/>
       <c r="B24" s="46"/>
       <c r="C24" s="13" t="s">
@@ -10045,7 +10050,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="47"/>
       <c r="B25" s="46"/>
       <c r="C25" s="13" t="s">
@@ -10061,7 +10066,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="47"/>
       <c r="B26" s="46"/>
       <c r="C26" s="13" t="s">
@@ -10077,7 +10082,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="47"/>
       <c r="B27" s="46"/>
       <c r="C27" s="13" t="s">
@@ -10093,7 +10098,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="47"/>
       <c r="B28" s="46"/>
       <c r="C28" s="13" t="s">
@@ -10109,7 +10114,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="47"/>
       <c r="B29" s="46"/>
       <c r="C29" s="13" t="s">
@@ -10125,7 +10130,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="47"/>
       <c r="B30" s="46"/>
       <c r="C30" s="13" t="s">
@@ -10141,7 +10146,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="47"/>
       <c r="B31" s="46"/>
       <c r="C31" s="13" t="s">
@@ -10157,7 +10162,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="47"/>
       <c r="B32" s="46"/>
       <c r="C32" s="13" t="s">
@@ -10173,7 +10178,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="47"/>
       <c r="B33" s="46"/>
       <c r="C33" s="13" t="s">
@@ -10189,7 +10194,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="47"/>
       <c r="B34" s="46"/>
       <c r="C34" s="13" t="s">
@@ -10205,7 +10210,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="47"/>
       <c r="B35" s="46"/>
       <c r="C35" s="13" t="s">
@@ -10221,7 +10226,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="47"/>
       <c r="B36" s="46"/>
       <c r="C36" s="13" t="s">
@@ -10237,7 +10242,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="47"/>
       <c r="B37" s="46"/>
       <c r="C37" s="13" t="s">
@@ -10253,7 +10258,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="47"/>
       <c r="B38" s="46"/>
       <c r="C38" s="13" t="s">
@@ -10269,7 +10274,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="47"/>
       <c r="B39" s="46"/>
       <c r="C39" s="13" t="s">
@@ -10285,7 +10290,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16">
       <c r="A40" s="47"/>
       <c r="B40" s="46"/>
       <c r="C40" s="13" t="s">
@@ -10301,7 +10306,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="47"/>
       <c r="B41" s="46"/>
       <c r="C41" s="13" t="s">
@@ -10317,7 +10322,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="47"/>
       <c r="B42" s="46"/>
       <c r="C42" s="13" t="s">
@@ -10333,7 +10338,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16">
       <c r="A43" s="47"/>
       <c r="B43" s="46"/>
       <c r="C43" s="13" t="s">
@@ -10349,7 +10354,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16">
       <c r="A44" s="47"/>
       <c r="B44" s="46"/>
       <c r="C44" s="13" t="s">
@@ -10365,7 +10370,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16">
       <c r="A45" s="47"/>
       <c r="B45" s="46"/>
       <c r="C45" s="13" t="s">
@@ -10381,7 +10386,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16">
       <c r="A46" s="47"/>
       <c r="B46" s="46"/>
       <c r="C46" s="13" t="s">
@@ -10397,7 +10402,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16">
       <c r="A47" s="47"/>
       <c r="B47" s="46"/>
       <c r="C47" s="13" t="s">
@@ -10413,7 +10418,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16">
       <c r="A48" s="47"/>
       <c r="B48" s="46"/>
       <c r="C48" s="13" t="s">
@@ -10429,7 +10434,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16">
       <c r="A49" s="47"/>
       <c r="B49" s="46"/>
       <c r="C49" s="13" t="s">
@@ -10445,7 +10450,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="16">
       <c r="A50" s="47"/>
       <c r="B50" s="46"/>
       <c r="C50" s="13" t="s">
@@ -10461,7 +10466,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16">
       <c r="A51" s="47"/>
       <c r="B51" s="46"/>
       <c r="C51" s="13" t="s">
@@ -10477,7 +10482,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16">
       <c r="A52" s="47"/>
       <c r="B52" s="46"/>
       <c r="C52" s="13" t="s">
@@ -10493,7 +10498,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="16">
       <c r="A53" s="47"/>
       <c r="B53" s="46"/>
       <c r="C53" s="13" t="s">
@@ -10509,7 +10514,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="16">
       <c r="A54" s="47"/>
       <c r="B54" s="46"/>
       <c r="C54" s="13" t="s">
@@ -10525,7 +10530,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16">
       <c r="A55" s="47"/>
       <c r="B55" s="46"/>
       <c r="C55" s="13" t="s">
@@ -10541,7 +10546,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16">
       <c r="A56" s="47"/>
       <c r="B56" s="46"/>
       <c r="C56" s="13" t="s">
@@ -10557,7 +10562,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="16">
       <c r="A57" s="47"/>
       <c r="B57" s="46"/>
       <c r="C57" s="13" t="s">
@@ -10573,7 +10578,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="16">
       <c r="A58" s="47"/>
       <c r="B58" s="46"/>
       <c r="C58" s="13" t="s">
@@ -10589,7 +10594,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16">
       <c r="A59" s="47"/>
       <c r="B59" s="46"/>
       <c r="C59" s="13" t="s">
@@ -10605,7 +10610,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="47"/>
       <c r="B60" s="46"/>
       <c r="C60" s="45" t="s">
@@ -10621,7 +10626,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="16">
       <c r="A61" s="47"/>
       <c r="B61" s="46"/>
       <c r="C61" s="45" t="s">
@@ -10637,610 +10642,610 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="47"/>
       <c r="B62" s="46"/>
       <c r="C62" s="45"/>
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="47"/>
       <c r="B63" s="46"/>
       <c r="C63" s="45"/>
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="47"/>
       <c r="B64" s="46"/>
       <c r="C64" s="45"/>
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="47"/>
       <c r="B65" s="46"/>
       <c r="C65" s="45"/>
       <c r="F65" s="18"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="47"/>
       <c r="B66" s="46"/>
       <c r="C66" s="45"/>
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="47"/>
       <c r="B67" s="46"/>
       <c r="C67" s="45"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="47"/>
       <c r="B68" s="46"/>
       <c r="C68" s="45"/>
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="47"/>
       <c r="B69" s="46"/>
       <c r="C69" s="45"/>
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="47"/>
       <c r="B70" s="46"/>
       <c r="C70" s="45"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="47"/>
       <c r="B71" s="46"/>
       <c r="C71" s="45"/>
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="47"/>
       <c r="B72" s="46"/>
       <c r="C72" s="45"/>
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="47"/>
       <c r="B73" s="46"/>
       <c r="C73" s="45"/>
       <c r="F73" s="18"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="47"/>
       <c r="B74" s="46"/>
       <c r="C74" s="45"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="47"/>
       <c r="B75" s="46"/>
       <c r="C75" s="45"/>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="47"/>
       <c r="B76" s="46"/>
       <c r="C76" s="45"/>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="47"/>
       <c r="B77" s="46"/>
       <c r="C77" s="45"/>
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="47"/>
       <c r="B78" s="46"/>
       <c r="C78" s="45"/>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="47"/>
       <c r="B79" s="46"/>
       <c r="C79" s="45"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="47"/>
       <c r="B80" s="46"/>
       <c r="C80" s="45"/>
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="47"/>
       <c r="B81" s="46"/>
       <c r="C81" s="45"/>
       <c r="F81" s="18"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="47"/>
       <c r="B82" s="46"/>
       <c r="C82" s="45"/>
       <c r="F82" s="18"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="47"/>
       <c r="B83" s="46"/>
       <c r="C83" s="45"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="47"/>
       <c r="B84" s="46"/>
       <c r="C84" s="45"/>
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="47"/>
       <c r="B85" s="46"/>
       <c r="C85" s="45"/>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="47"/>
       <c r="B86" s="46"/>
       <c r="C86" s="45"/>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="47"/>
       <c r="B87" s="46"/>
       <c r="C87" s="45"/>
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="47"/>
       <c r="B88" s="46"/>
       <c r="C88" s="45"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="47"/>
       <c r="B89" s="46"/>
       <c r="C89" s="45"/>
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="47"/>
       <c r="B90" s="46"/>
       <c r="C90" s="45"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="47"/>
       <c r="B91" s="46"/>
       <c r="C91" s="45"/>
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="47"/>
       <c r="B92" s="46"/>
       <c r="C92" s="45"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="47"/>
       <c r="B93" s="46"/>
       <c r="C93" s="45"/>
       <c r="F93" s="18"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="47"/>
       <c r="B94" s="46"/>
       <c r="C94" s="45"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="47"/>
       <c r="B95" s="46"/>
       <c r="C95" s="45"/>
       <c r="F95" s="18"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="47"/>
       <c r="B96" s="46"/>
       <c r="C96" s="45"/>
       <c r="F96" s="18"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="47"/>
       <c r="B97" s="46"/>
       <c r="C97" s="45"/>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="47"/>
       <c r="B98" s="46"/>
       <c r="C98" s="45"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="47"/>
       <c r="B99" s="46"/>
       <c r="C99" s="45"/>
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="47"/>
       <c r="B100" s="46"/>
       <c r="C100" s="45"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="47"/>
       <c r="B101" s="46"/>
       <c r="C101" s="45"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="47"/>
       <c r="B102" s="46"/>
       <c r="C102" s="45"/>
       <c r="F102" s="18"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="47"/>
       <c r="B103" s="46"/>
       <c r="C103" s="45"/>
       <c r="F103" s="18"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="47"/>
       <c r="B104" s="46"/>
       <c r="C104" s="45"/>
       <c r="F104" s="18"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="47"/>
       <c r="B105" s="46"/>
       <c r="C105" s="45"/>
       <c r="F105" s="18"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="47"/>
       <c r="B106" s="46"/>
       <c r="C106" s="45"/>
       <c r="F106" s="18"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="47"/>
       <c r="B107" s="46"/>
       <c r="C107" s="45"/>
       <c r="F107" s="18"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="47"/>
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="F108" s="18"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="47"/>
       <c r="B109" s="46"/>
       <c r="C109" s="45"/>
       <c r="F109" s="18"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="47"/>
       <c r="B110" s="46"/>
       <c r="C110" s="45"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="47"/>
       <c r="B111" s="46"/>
       <c r="C111" s="45"/>
       <c r="F111" s="18"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="47"/>
       <c r="B112" s="46"/>
       <c r="C112" s="45"/>
       <c r="F112" s="18"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="47"/>
       <c r="B113" s="46"/>
       <c r="C113" s="45"/>
       <c r="F113" s="18"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="47"/>
       <c r="B114" s="46"/>
       <c r="C114" s="45"/>
       <c r="F114" s="18"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="47"/>
       <c r="B115" s="46"/>
       <c r="C115" s="45"/>
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="47"/>
       <c r="B116" s="46"/>
       <c r="C116" s="45"/>
       <c r="F116" s="18"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="47"/>
       <c r="B117" s="46"/>
       <c r="C117" s="45"/>
       <c r="F117" s="18"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="47"/>
       <c r="B118" s="46"/>
       <c r="C118" s="45"/>
       <c r="F118" s="18"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="47"/>
       <c r="B119" s="46"/>
       <c r="C119" s="45"/>
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="47"/>
       <c r="B120" s="46"/>
       <c r="C120" s="45"/>
       <c r="F120" s="18"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="47"/>
       <c r="B121" s="46"/>
       <c r="C121" s="45"/>
       <c r="F121" s="18"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="47"/>
       <c r="B122" s="46"/>
       <c r="C122" s="45"/>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="47"/>
       <c r="B123" s="46"/>
       <c r="C123" s="45"/>
       <c r="F123" s="18"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="47"/>
       <c r="B124" s="46"/>
       <c r="C124" s="45"/>
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="47"/>
       <c r="B125" s="46"/>
       <c r="C125" s="45"/>
       <c r="F125" s="18"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="47"/>
       <c r="B126" s="46"/>
       <c r="C126" s="45"/>
       <c r="F126" s="18"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="47"/>
       <c r="B127" s="46"/>
       <c r="C127" s="45"/>
       <c r="F127" s="18"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="47"/>
       <c r="B128" s="46"/>
       <c r="C128" s="45"/>
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="47"/>
       <c r="B129" s="46"/>
       <c r="C129" s="45"/>
       <c r="F129" s="18"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="47"/>
       <c r="B130" s="46"/>
       <c r="C130" s="45"/>
       <c r="F130" s="18"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="47"/>
       <c r="B131" s="46"/>
       <c r="C131" s="45"/>
       <c r="F131" s="18"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="47"/>
       <c r="B132" s="46"/>
       <c r="C132" s="45"/>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="47"/>
       <c r="B133" s="46"/>
       <c r="C133" s="45"/>
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="47"/>
       <c r="B134" s="46"/>
       <c r="C134" s="45"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="47"/>
       <c r="B135" s="46"/>
       <c r="C135" s="45"/>
       <c r="F135" s="18"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="47"/>
       <c r="B136" s="46"/>
       <c r="C136" s="45"/>
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="47"/>
       <c r="B137" s="46"/>
       <c r="C137" s="45"/>
       <c r="F137" s="18"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="47"/>
       <c r="B138" s="46"/>
       <c r="C138" s="45"/>
       <c r="F138" s="18"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="47"/>
       <c r="B139" s="46"/>
       <c r="C139" s="45"/>
       <c r="F139" s="18"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="47"/>
       <c r="B140" s="46"/>
       <c r="C140" s="45"/>
       <c r="F140" s="18"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="47"/>
       <c r="B141" s="46"/>
       <c r="C141" s="45"/>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="47"/>
       <c r="B142" s="46"/>
       <c r="C142" s="45"/>
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="47"/>
       <c r="B143" s="46"/>
       <c r="C143" s="45"/>
       <c r="F143" s="18"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="47"/>
       <c r="B144" s="46"/>
       <c r="C144" s="45"/>
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="47"/>
       <c r="B145" s="46"/>
       <c r="C145" s="45"/>
       <c r="F145" s="18"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="47"/>
       <c r="B146" s="46"/>
       <c r="C146" s="45"/>
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="47"/>
       <c r="B147" s="46"/>
       <c r="C147" s="45"/>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="47"/>
       <c r="B148" s="46"/>
       <c r="C148" s="45"/>
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="47"/>
       <c r="B149" s="46"/>
       <c r="C149" s="45"/>
       <c r="F149" s="18"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="47"/>
       <c r="B150" s="46"/>
       <c r="C150" s="45"/>
       <c r="F150" s="18"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="47"/>
       <c r="B151" s="46"/>
       <c r="C151" s="45"/>
       <c r="F151" s="18"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="47"/>
       <c r="B152" s="46"/>
       <c r="C152" s="45"/>
       <c r="F152" s="18"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="47"/>
       <c r="B153" s="46"/>
       <c r="C153" s="45"/>
       <c r="F153" s="18"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="47"/>
       <c r="B154" s="46"/>
       <c r="C154" s="45"/>
       <c r="F154" s="18"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="47"/>
       <c r="B155" s="46"/>
       <c r="C155" s="45"/>
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="47"/>
       <c r="B156" s="46"/>
       <c r="C156" s="45"/>
       <c r="F156" s="18"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="47"/>
       <c r="B157" s="46"/>
       <c r="C157" s="45"/>
       <c r="F157" s="18"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="47"/>
       <c r="B158" s="46"/>
       <c r="C158" s="45"/>
       <c r="F158" s="18"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="47"/>
       <c r="B159" s="46"/>
       <c r="C159" s="45"/>
       <c r="F159" s="18"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="47"/>
       <c r="B160" s="46"/>
       <c r="C160" s="45"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" s="47"/>
       <c r="B161" s="46"/>
       <c r="C161" s="45"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" s="47"/>
       <c r="B162" s="46"/>
       <c r="C162" s="45"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="47"/>
       <c r="B163" s="46"/>
       <c r="C163" s="45"/>
@@ -11250,7 +11255,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="F4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -11263,29 +11268,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E18:E19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="61" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="60" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="68" customWidth="1"/>
     <col min="7" max="10" width="12.6640625" style="57" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="57"/>
+    <col min="11" max="12" width="9.1640625" style="57"/>
     <col min="13" max="13" width="21" style="57" customWidth="1"/>
     <col min="14" max="14" width="25.33203125" style="57" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="57"/>
+    <col min="15" max="16384" width="9.1640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="171" t="s">
         <v>1197</v>
       </c>
@@ -11302,7 +11307,7 @@
       <c r="M1" s="65"/>
       <c r="N1" s="66"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="173" t="s">
         <v>1192</v>
       </c>
@@ -11319,7 +11324,7 @@
       <c r="M2" s="65"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14" customHeight="1">
       <c r="A3" s="152" t="s">
         <v>1051</v>
       </c>
@@ -11340,7 +11345,7 @@
       <c r="L3" s="65"/>
       <c r="M3" s="66"/>
     </row>
-    <row r="4" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14" customHeight="1">
       <c r="A4" s="168" t="s">
         <v>1228</v>
       </c>
@@ -11361,7 +11366,7 @@
       <c r="L4" s="65"/>
       <c r="M4" s="66"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="62">
         <v>1000</v>
       </c>
@@ -11382,7 +11387,7 @@
       <c r="L5" s="65"/>
       <c r="M5" s="66"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="62">
         <v>1100</v>
       </c>
@@ -11403,7 +11408,7 @@
       <c r="L6" s="65"/>
       <c r="M6" s="66"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="62">
         <v>1110</v>
       </c>
@@ -11426,7 +11431,7 @@
       <c r="L7" s="65"/>
       <c r="M7" s="66"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="62">
         <v>1120</v>
       </c>
@@ -11449,7 +11454,7 @@
       <c r="L8" s="65"/>
       <c r="M8" s="66"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16">
       <c r="A9" s="62">
         <v>1130</v>
       </c>
@@ -11474,7 +11479,7 @@
       <c r="L9" s="65"/>
       <c r="M9" s="66"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16">
       <c r="A10" s="62">
         <v>1141</v>
       </c>
@@ -11497,7 +11502,7 @@
       <c r="L10" s="65"/>
       <c r="M10" s="66"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16">
       <c r="A11" s="62">
         <v>1150</v>
       </c>
@@ -11520,7 +11525,7 @@
       <c r="L11" s="65"/>
       <c r="M11" s="66"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16">
       <c r="A12" s="62">
         <v>2000</v>
       </c>
@@ -11543,7 +11548,7 @@
       <c r="L12" s="65"/>
       <c r="M12" s="66"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="62">
         <v>3000</v>
       </c>
@@ -11566,7 +11571,7 @@
       <c r="L13" s="65"/>
       <c r="M13" s="66"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="62">
         <v>4000</v>
       </c>
@@ -11589,7 +11594,7 @@
       <c r="L14" s="65"/>
       <c r="M14" s="66"/>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="32">
       <c r="A15" s="62">
         <v>5000</v>
       </c>
@@ -11614,7 +11619,7 @@
       <c r="L15" s="65"/>
       <c r="M15" s="66"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="62">
         <v>6000</v>
       </c>
@@ -11637,7 +11642,7 @@
       <c r="L16" s="65"/>
       <c r="M16" s="66"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="62">
         <v>9999</v>
       </c>
@@ -11649,12 +11654,12 @@
       </c>
       <c r="F17" s="61"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="95"/>
       <c r="D18" s="151"/>
       <c r="F18" s="61"/>
     </row>
-    <row r="19" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="31.5" customHeight="1">
       <c r="A19" s="174" t="s">
         <v>1190</v>
       </c>
@@ -11663,7 +11668,7 @@
       <c r="D19" s="175"/>
       <c r="F19" s="61"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="164" t="s">
         <v>1185</v>
       </c>
@@ -11673,181 +11678,181 @@
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="F34" s="61"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="F35" s="61"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="F36" s="61"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="F37" s="61"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="F38" s="61"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="F39" s="61"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="F40" s="61"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="F41" s="61"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="F42" s="61"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="F45" s="61"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="F46" s="61"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="F47" s="61"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="F48" s="61"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="F49" s="61"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="F50" s="61"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="F51" s="61"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="F52" s="61"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="F53" s="61"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="F54" s="61"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="F55" s="61"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="69"/>
       <c r="F56" s="61"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="F57" s="61"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="F58" s="61"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="F59" s="61"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="56"/>
       <c r="C60" s="62"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="56"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="F62" s="61"/>
     </row>
-    <row r="63" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="55" customFormat="1">
       <c r="A63" s="70"/>
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
@@ -11855,63 +11860,63 @@
       <c r="E63" s="60"/>
       <c r="F63" s="61"/>
     </row>
-    <row r="64" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="55" customFormat="1">
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="61"/>
       <c r="E64" s="60"/>
       <c r="F64" s="61"/>
     </row>
-    <row r="65" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="55" customFormat="1">
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="61"/>
       <c r="E65" s="60"/>
       <c r="F65" s="61"/>
     </row>
-    <row r="66" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="55" customFormat="1">
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="61"/>
       <c r="E66" s="60"/>
       <c r="F66" s="61"/>
     </row>
-    <row r="67" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="55" customFormat="1">
       <c r="B67" s="62"/>
       <c r="C67" s="58"/>
       <c r="D67" s="61"/>
       <c r="E67" s="60"/>
       <c r="F67" s="61"/>
     </row>
-    <row r="68" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="55" customFormat="1">
       <c r="B68" s="62"/>
       <c r="C68" s="58"/>
       <c r="D68" s="61"/>
       <c r="E68" s="60"/>
       <c r="F68" s="61"/>
     </row>
-    <row r="69" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="55" customFormat="1">
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
       <c r="D69" s="61"/>
       <c r="E69" s="60"/>
       <c r="F69" s="61"/>
     </row>
-    <row r="70" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="55" customFormat="1">
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
       <c r="D70" s="61"/>
       <c r="E70" s="60"/>
       <c r="F70" s="61"/>
     </row>
-    <row r="71" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="55" customFormat="1">
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
       <c r="D71" s="61"/>
       <c r="E71" s="60"/>
       <c r="F71" s="61"/>
     </row>
-    <row r="72" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="55" customFormat="1">
       <c r="A72" s="70"/>
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
@@ -11919,7 +11924,7 @@
       <c r="E72" s="60"/>
       <c r="F72" s="61"/>
     </row>
-    <row r="73" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="55" customFormat="1">
       <c r="A73" s="70"/>
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
@@ -11927,7 +11932,7 @@
       <c r="E73" s="60"/>
       <c r="F73" s="61"/>
     </row>
-    <row r="74" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" s="55" customFormat="1">
       <c r="A74" s="57"/>
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
@@ -11935,14 +11940,14 @@
       <c r="E74" s="60"/>
       <c r="F74" s="61"/>
     </row>
-    <row r="75" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" s="55" customFormat="1">
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
       <c r="D75" s="61"/>
       <c r="E75" s="60"/>
       <c r="F75" s="61"/>
     </row>
-    <row r="76" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="55" customFormat="1">
       <c r="A76" s="70"/>
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
@@ -11950,49 +11955,49 @@
       <c r="E76" s="60"/>
       <c r="F76" s="61"/>
     </row>
-    <row r="77" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="55" customFormat="1">
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
       <c r="D77" s="61"/>
       <c r="E77" s="60"/>
       <c r="F77" s="61"/>
     </row>
-    <row r="78" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="55" customFormat="1">
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
       <c r="D78" s="61"/>
       <c r="E78" s="60"/>
       <c r="F78" s="61"/>
     </row>
-    <row r="79" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="55" customFormat="1">
       <c r="B79" s="58"/>
       <c r="C79" s="58"/>
       <c r="D79" s="61"/>
       <c r="E79" s="60"/>
       <c r="F79" s="61"/>
     </row>
-    <row r="80" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" s="55" customFormat="1">
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="61"/>
       <c r="E80" s="60"/>
       <c r="F80" s="61"/>
     </row>
-    <row r="81" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="55" customFormat="1">
       <c r="B81" s="58"/>
       <c r="C81" s="58"/>
       <c r="D81" s="61"/>
       <c r="E81" s="60"/>
       <c r="F81" s="61"/>
     </row>
-    <row r="82" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="55" customFormat="1">
       <c r="B82" s="58"/>
       <c r="C82" s="58"/>
       <c r="D82" s="61"/>
       <c r="E82" s="60"/>
       <c r="F82" s="61"/>
     </row>
-    <row r="83" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="55" customFormat="1">
       <c r="A83" s="70"/>
       <c r="B83" s="58"/>
       <c r="C83" s="58"/>
@@ -12000,7 +12005,7 @@
       <c r="E83" s="60"/>
       <c r="F83" s="61"/>
     </row>
-    <row r="84" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="55" customFormat="1">
       <c r="A84" s="70"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58"/>
@@ -12008,133 +12013,133 @@
       <c r="E84" s="60"/>
       <c r="F84" s="61"/>
     </row>
-    <row r="85" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="55" customFormat="1">
       <c r="B85" s="58"/>
       <c r="C85" s="58"/>
       <c r="D85" s="61"/>
       <c r="E85" s="60"/>
       <c r="F85" s="61"/>
     </row>
-    <row r="86" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" s="55" customFormat="1">
       <c r="B86" s="58"/>
       <c r="C86" s="58"/>
       <c r="D86" s="61"/>
       <c r="E86" s="60"/>
       <c r="F86" s="61"/>
     </row>
-    <row r="87" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" s="55" customFormat="1">
       <c r="B87" s="58"/>
       <c r="C87" s="58"/>
       <c r="D87" s="61"/>
       <c r="E87" s="60"/>
       <c r="F87" s="61"/>
     </row>
-    <row r="88" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" s="55" customFormat="1">
       <c r="B88" s="58"/>
       <c r="C88" s="58"/>
       <c r="D88" s="61"/>
       <c r="E88" s="60"/>
       <c r="F88" s="61"/>
     </row>
-    <row r="89" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="55" customFormat="1">
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="61"/>
       <c r="E89" s="60"/>
       <c r="F89" s="71"/>
     </row>
-    <row r="90" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="55" customFormat="1">
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="61"/>
       <c r="E90" s="60"/>
       <c r="F90" s="71"/>
     </row>
-    <row r="91" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="55" customFormat="1">
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="61"/>
       <c r="E91" s="60"/>
       <c r="F91" s="61"/>
     </row>
-    <row r="92" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" s="55" customFormat="1">
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="61"/>
       <c r="E92" s="60"/>
       <c r="F92" s="61"/>
     </row>
-    <row r="93" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" s="55" customFormat="1">
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="61"/>
       <c r="E93" s="60"/>
       <c r="F93" s="61"/>
     </row>
-    <row r="94" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="55" customFormat="1">
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="61"/>
       <c r="E94" s="60"/>
       <c r="F94" s="61"/>
     </row>
-    <row r="95" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="55" customFormat="1">
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="61"/>
       <c r="E95" s="60"/>
       <c r="F95" s="61"/>
     </row>
-    <row r="96" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="55" customFormat="1">
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="61"/>
       <c r="E96" s="60"/>
       <c r="F96" s="61"/>
     </row>
-    <row r="97" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" s="55" customFormat="1">
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="61"/>
       <c r="E97" s="60"/>
       <c r="F97" s="61"/>
     </row>
-    <row r="98" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" s="55" customFormat="1">
       <c r="B98" s="58"/>
       <c r="C98" s="58"/>
       <c r="D98" s="61"/>
       <c r="E98" s="60"/>
       <c r="F98" s="61"/>
     </row>
-    <row r="99" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" s="55" customFormat="1">
       <c r="B99" s="58"/>
       <c r="C99" s="58"/>
       <c r="D99" s="61"/>
       <c r="E99" s="60"/>
       <c r="F99" s="61"/>
     </row>
-    <row r="100" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" s="55" customFormat="1">
       <c r="B100" s="58"/>
       <c r="C100" s="58"/>
       <c r="D100" s="61"/>
       <c r="E100" s="60"/>
       <c r="F100" s="61"/>
     </row>
-    <row r="101" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" s="55" customFormat="1">
       <c r="B101" s="58"/>
       <c r="C101" s="58"/>
       <c r="D101" s="61"/>
       <c r="E101" s="60"/>
       <c r="F101" s="61"/>
     </row>
-    <row r="102" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" s="55" customFormat="1">
       <c r="B102" s="58"/>
       <c r="C102" s="58"/>
       <c r="D102" s="61"/>
       <c r="E102" s="60"/>
       <c r="F102" s="61"/>
     </row>
-    <row r="103" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" s="55" customFormat="1">
       <c r="B103" s="58"/>
       <c r="C103" s="58"/>
       <c r="D103" s="61"/>
@@ -12148,21 +12153,21 @@
     <mergeCell ref="A19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" location="Case!A1" display="Case "/>
-    <hyperlink ref="C6" location="Offense!A1" display="Offense "/>
-    <hyperlink ref="C7" location="'Offense Info'!A1" display="Offense Information"/>
-    <hyperlink ref="C8" location="'Freeform Offense'!A1" display="Freeform Offense"/>
-    <hyperlink ref="C9" location="Judgment!A1" display="Judgment"/>
-    <hyperlink ref="C10" location="'Spec. Conditions'!A1" display="Special Conditions"/>
-    <hyperlink ref="C11" location="Events!A1" display="Events"/>
-    <hyperlink ref="C12" location="'Alias Name'!A1" display="Alias Name"/>
-    <hyperlink ref="C13" location="Witness!A1" display="Witness"/>
-    <hyperlink ref="C14" location="Attorney!A1" display="Attorney"/>
-    <hyperlink ref="C15" location="SBI!A1" display="SBI"/>
-    <hyperlink ref="C16" location="'CCIS-CC'!A1" display="CCIS-CC"/>
-    <hyperlink ref="C17" location="'Total Record Count'!A1" display="Total Record Count"/>
-    <hyperlink ref="A20" r:id="rId1"/>
-    <hyperlink ref="C4" location="Delete!A1" display="Delete "/>
+    <hyperlink ref="C5" location="Case!A1" display="Case " xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" location="Offense!A1" display="Offense " xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C7" location="'Offense Info'!A1" display="Offense Information" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C8" location="'Freeform Offense'!A1" display="Freeform Offense" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C9" location="Judgment!A1" display="Judgment" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C10" location="'Spec. Conditions'!A1" display="Special Conditions" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C11" location="Events!A1" display="Events" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C12" location="'Alias Name'!A1" display="Alias Name" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C13" location="Witness!A1" display="Witness" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C14" location="Attorney!A1" display="Attorney" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C15" location="SBI!A1" display="SBI" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C16" location="'CCIS-CC'!A1" display="CCIS-CC" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C17" location="'Total Record Count'!A1" display="Total Record Count" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C4" location="Delete!A1" display="Delete " xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -12175,27 +12180,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="142" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="142" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="142" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="142" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="142" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="142" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="142" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="146" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" style="142" customWidth="1"/>
-    <col min="8" max="8" width="38.88671875" style="142" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="142"/>
+    <col min="7" max="7" width="43.5" style="142" customWidth="1"/>
+    <col min="8" max="8" width="38.83203125" style="142" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="131" t="s">
         <v>1178</v>
       </c>
@@ -12218,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="130" t="s">
         <v>1134</v>
       </c>
@@ -12231,7 +12236,7 @@
       </c>
       <c r="G2" s="136"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="144"/>
       <c r="B3" s="137" t="s">
         <v>1179</v>
@@ -12252,7 +12257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="144"/>
       <c r="B4" s="137" t="s">
         <v>1135</v>
@@ -12273,7 +12278,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="139"/>
       <c r="B5" s="139" t="s">
         <v>1231</v>
@@ -12294,7 +12299,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="1"/>
       <c r="B6" s="139" t="s">
         <v>1139</v>
@@ -12315,7 +12320,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="161" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="161" customFormat="1" ht="16">
       <c r="A7" s="116"/>
       <c r="B7" s="158" t="s">
         <v>1141</v>
@@ -12336,7 +12341,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="1"/>
       <c r="B8" s="139" t="s">
         <v>1142</v>
@@ -12357,7 +12362,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="1"/>
       <c r="B9" s="139" t="s">
         <v>1144</v>
@@ -12378,7 +12383,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="1"/>
       <c r="B10" s="139" t="s">
         <v>1146</v>
@@ -12399,7 +12404,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="1"/>
       <c r="B11" s="139" t="s">
         <v>1148</v>
@@ -12420,7 +12425,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="1"/>
       <c r="B12" s="139" t="s">
         <v>1150</v>
@@ -12441,7 +12446,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="1"/>
       <c r="B13" s="139" t="s">
         <v>1152</v>
@@ -12462,7 +12467,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="1"/>
       <c r="B14" s="139" t="s">
         <v>1154</v>
@@ -12483,7 +12488,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="1"/>
       <c r="B15" s="139" t="s">
         <v>1156</v>
@@ -12504,7 +12509,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="1"/>
       <c r="B16" s="139" t="s">
         <v>1158</v>
@@ -12525,7 +12530,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="1"/>
       <c r="B17" s="139" t="s">
         <v>1160</v>
@@ -12552,23 +12557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.25" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="179" t="s">
         <v>1223</v>
       </c>
@@ -12606,7 +12611,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.5" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -12626,7 +12631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.5" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -12648,7 +12653,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.5" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -12670,7 +12675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.5" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -12692,7 +12697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.5" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -12714,7 +12719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.5" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -12736,7 +12741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -12758,7 +12763,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.5" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -12780,7 +12785,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="31.25" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -12802,7 +12807,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.5" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="49" t="s">
         <v>7</v>
@@ -12824,7 +12829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.5" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="49" t="s">
         <v>10</v>
@@ -12846,7 +12851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.5" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="49" t="s">
         <v>13</v>
@@ -12868,7 +12873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.5" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="49" t="s">
         <v>1133</v>
@@ -12890,7 +12895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.5" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="49" t="s">
         <v>461</v>
@@ -12918,7 +12923,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12926,29 +12931,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" style="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="119" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="119" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.44140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="4.5" style="119" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.5" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="55" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="55" customFormat="1" ht="32">
       <c r="A1" s="181" t="s">
         <v>974</v>
       </c>
@@ -12971,7 +12976,7 @@
       </c>
       <c r="I1" s="128"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
@@ -12987,7 +12992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -13007,7 +13012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="57" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -13029,7 +13034,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -13051,7 +13056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -13073,7 +13078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -13095,7 +13100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -13117,7 +13122,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -13139,7 +13144,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -13162,7 +13167,7 @@
       </c>
       <c r="J10" s="118"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -13184,7 +13189,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>7</v>
@@ -13206,7 +13211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
         <v>10</v>
@@ -13228,7 +13233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
@@ -13250,7 +13255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
         <v>1133</v>
@@ -13272,7 +13277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="16">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>17</v>
@@ -13294,7 +13299,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
         <v>18</v>
@@ -13316,7 +13321,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
         <v>20</v>
@@ -13338,7 +13343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -13360,7 +13365,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>25</v>
@@ -13382,7 +13387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
         <v>28</v>
@@ -13404,7 +13409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>31</v>
@@ -13426,7 +13431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>34</v>
@@ -13448,7 +13453,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="57" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="57" customFormat="1" ht="160">
       <c r="A24" s="16"/>
       <c r="B24" s="33" t="s">
         <v>36</v>
@@ -13470,7 +13475,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="57" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="57" customFormat="1" ht="80">
       <c r="A25" s="16"/>
       <c r="B25" s="33" t="s">
         <v>38</v>
@@ -13492,7 +13497,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
@@ -13514,7 +13519,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
@@ -13536,7 +13541,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A28" s="16"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
@@ -13558,7 +13563,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>43</v>
@@ -13580,7 +13585,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A30" s="16"/>
       <c r="B30" s="16" t="s">
         <v>44</v>
@@ -13602,7 +13607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="57" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="57" customFormat="1" ht="144">
       <c r="A31" s="16"/>
       <c r="B31" s="33" t="s">
         <v>46</v>
@@ -13624,7 +13629,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>47</v>
@@ -13646,7 +13651,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
         <v>48</v>
@@ -13668,7 +13673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
         <v>50</v>
@@ -13690,7 +13695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
         <v>52</v>
@@ -13712,7 +13717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A36" s="16"/>
       <c r="B36" s="16" t="s">
         <v>54</v>
@@ -13734,7 +13739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A37" s="16"/>
       <c r="B37" s="16" t="s">
         <v>56</v>
@@ -13756,7 +13761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
         <v>58</v>
@@ -13778,7 +13783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A39" s="15"/>
       <c r="B39" s="16" t="s">
         <v>60</v>
@@ -13800,7 +13805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="57" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="57" customFormat="1" ht="64">
       <c r="A40" s="116"/>
       <c r="B40" s="16" t="s">
         <v>1166</v>
@@ -13816,7 +13821,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="57" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="57" customFormat="1" ht="64">
       <c r="A41" s="116"/>
       <c r="B41" s="16" t="s">
         <v>1168</v>
@@ -13832,7 +13837,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="57" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="57" customFormat="1" ht="64">
       <c r="A42" s="116"/>
       <c r="B42" s="16" t="s">
         <v>1170</v>
@@ -13848,7 +13853,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="57" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="57" customFormat="1" ht="64">
       <c r="A43" s="116"/>
       <c r="B43" s="16" t="s">
         <v>1172</v>
@@ -13864,7 +13869,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A44" s="116"/>
       <c r="B44" s="116" t="s">
         <v>461</v>
@@ -13880,7 +13885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
@@ -13902,7 +13907,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16" t="s">
@@ -13924,7 +13929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16" t="s">
@@ -13946,7 +13951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A48" s="15"/>
       <c r="B48" s="16" t="s">
         <v>461</v>
@@ -13968,7 +13973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A49" s="15"/>
       <c r="B49" s="16" t="s">
         <v>67</v>
@@ -13990,7 +13995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A50" s="15"/>
       <c r="B50" s="16" t="s">
         <v>69</v>
@@ -14012,7 +14017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A51" s="15"/>
       <c r="B51" s="16" t="s">
         <v>71</v>
@@ -14034,7 +14039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A52" s="15"/>
       <c r="B52" s="16" t="s">
         <v>73</v>
@@ -14056,7 +14061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A53" s="15"/>
       <c r="B53" s="16" t="s">
         <v>75</v>
@@ -14078,7 +14083,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A54" s="15"/>
       <c r="B54" s="16" t="s">
         <v>77</v>
@@ -14100,7 +14105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16">
       <c r="A55" s="18"/>
       <c r="B55" s="19" t="s">
         <v>79</v>
@@ -14122,7 +14127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="18"/>
       <c r="B56" s="19" t="s">
         <v>81</v>
@@ -14144,7 +14149,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16">
       <c r="A57" s="18"/>
       <c r="B57" s="19" t="s">
         <v>82</v>
@@ -14166,7 +14171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="48">
       <c r="A58" s="18"/>
       <c r="B58" s="34" t="s">
         <v>84</v>
@@ -14188,7 +14193,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16">
       <c r="A59" s="18"/>
       <c r="B59" s="19" t="s">
         <v>461</v>
@@ -14210,7 +14215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="80">
       <c r="A60" s="18"/>
       <c r="B60" s="34" t="s">
         <v>85</v>
@@ -14232,7 +14237,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
         <v>86</v>
@@ -14254,7 +14259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16">
       <c r="A62" s="18"/>
       <c r="B62" s="19" t="s">
         <v>88</v>
@@ -14276,7 +14281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="80">
       <c r="A63" s="18"/>
       <c r="B63" s="34" t="s">
         <v>90</v>
@@ -14298,7 +14303,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16">
       <c r="A64" s="18"/>
       <c r="B64" s="19" t="s">
         <v>91</v>
@@ -14320,7 +14325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="57" customFormat="1" ht="16">
       <c r="A65" s="15"/>
       <c r="B65" s="16" t="s">
         <v>461</v>
@@ -14342,7 +14347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16">
       <c r="A66" s="18"/>
       <c r="B66" s="19" t="s">
         <v>93</v>
@@ -14364,7 +14369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16">
       <c r="A67" s="18"/>
       <c r="B67" s="19" t="s">
         <v>461</v>
@@ -14386,7 +14391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16">
       <c r="A68" s="18"/>
       <c r="B68" s="19" t="s">
         <v>95</v>
@@ -14408,7 +14413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16">
       <c r="A69" s="18"/>
       <c r="B69" s="19" t="s">
         <v>97</v>
@@ -14430,7 +14435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16">
       <c r="A70" s="18"/>
       <c r="B70" s="19" t="s">
         <v>99</v>
@@ -14452,7 +14457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16">
       <c r="A71" s="18"/>
       <c r="B71" s="19" t="s">
         <v>101</v>
@@ -14474,7 +14479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="48">
       <c r="A72" s="18"/>
       <c r="B72" s="49" t="s">
         <v>103</v>
@@ -14496,7 +14501,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="48">
       <c r="A73" s="18"/>
       <c r="B73" s="49" t="s">
         <v>104</v>
@@ -14518,7 +14523,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="144">
       <c r="A74" s="18"/>
       <c r="B74" s="34" t="s">
         <v>105</v>
@@ -14540,7 +14545,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="48">
       <c r="A75" s="15"/>
       <c r="B75" s="33" t="s">
         <v>106</v>
@@ -14562,7 +14567,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16">
       <c r="A76" s="15"/>
       <c r="B76" s="16" t="s">
         <v>461</v>
@@ -14584,7 +14589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="112">
       <c r="A77" s="18"/>
       <c r="B77" s="34" t="s">
         <v>107</v>
@@ -14606,7 +14611,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16">
       <c r="A78" s="18"/>
       <c r="B78" s="19" t="s">
         <v>108</v>
@@ -14628,7 +14633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="224">
       <c r="A79" s="18"/>
       <c r="B79" s="34" t="s">
         <v>111</v>
@@ -14650,7 +14655,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="16">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="s">
         <v>112</v>
@@ -14672,7 +14677,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="16">
       <c r="A81" s="18"/>
       <c r="B81" s="19" t="s">
         <v>113</v>
@@ -14694,7 +14699,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="144">
       <c r="A82" s="18"/>
       <c r="B82" s="34" t="s">
         <v>115</v>
@@ -14716,7 +14721,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="121" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="121" customFormat="1" ht="48">
       <c r="A83" s="18"/>
       <c r="B83" s="34" t="s">
         <v>453</v>
@@ -14738,7 +14743,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="16">
       <c r="A84" s="18"/>
       <c r="B84" s="19" t="s">
         <v>118</v>
@@ -14760,7 +14765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="18"/>
       <c r="B85" s="19" t="s">
         <v>120</v>
@@ -14782,7 +14787,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="96">
       <c r="A86" s="18"/>
       <c r="B86" s="34" t="s">
         <v>121</v>
@@ -14804,7 +14809,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="16">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="s">
         <v>122</v>
@@ -14826,7 +14831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="16">
       <c r="A88" s="18"/>
       <c r="B88" s="19" t="s">
         <v>124</v>
@@ -14848,7 +14853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="16">
       <c r="A89" s="26"/>
       <c r="B89" s="18"/>
       <c r="C89" s="19" t="s">
@@ -14870,7 +14875,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="16">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19" t="s">
@@ -14892,7 +14897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19" t="s">
@@ -14914,7 +14919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A92" s="19"/>
       <c r="B92" s="19" t="s">
         <v>130</v>
@@ -14936,7 +14941,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A93" s="19"/>
       <c r="B93" s="18" t="s">
         <v>461</v>
@@ -14958,7 +14963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A94" s="19"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19" t="s">
@@ -14980,7 +14985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="122" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="122" customFormat="1" ht="272">
       <c r="A95" s="19"/>
       <c r="B95" s="18"/>
       <c r="C95" s="34" t="s">
@@ -15002,7 +15007,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A96" s="19"/>
       <c r="B96" s="19" t="s">
         <v>136</v>
@@ -15024,7 +15029,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="55" customFormat="1" ht="16">
       <c r="A97" s="16"/>
       <c r="B97" s="16" t="s">
         <v>137</v>
@@ -15046,7 +15051,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A98" s="19"/>
       <c r="B98" s="19" t="s">
         <v>138</v>
@@ -15068,7 +15073,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="122" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="122" customFormat="1" ht="64">
       <c r="A99" s="19"/>
       <c r="B99" s="34" t="s">
         <v>140</v>
@@ -15090,7 +15095,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="122" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="122" customFormat="1" ht="80">
       <c r="A100" s="19"/>
       <c r="B100" s="34" t="s">
         <v>472</v>
@@ -15112,7 +15117,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="122" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="122" customFormat="1" ht="208">
       <c r="A101" s="19"/>
       <c r="B101" s="34" t="s">
         <v>473</v>
@@ -15134,7 +15139,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A102" s="19"/>
       <c r="B102" s="19" t="s">
         <v>474</v>
@@ -15156,7 +15161,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="122" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="122" customFormat="1" ht="64">
       <c r="A103" s="19"/>
       <c r="B103" s="34" t="s">
         <v>476</v>
@@ -15178,7 +15183,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="55" customFormat="1" ht="16">
       <c r="A104" s="16"/>
       <c r="B104" s="16" t="s">
         <v>141</v>
@@ -15200,7 +15205,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="122" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="122" customFormat="1" ht="48">
       <c r="A105" s="19"/>
       <c r="B105" s="34" t="s">
         <v>143</v>
@@ -15222,7 +15227,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A106" s="19"/>
       <c r="B106" s="19" t="s">
         <v>144</v>
@@ -15244,7 +15249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A107" s="19"/>
       <c r="B107" s="19" t="s">
         <v>146</v>
@@ -15266,7 +15271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A108" s="19"/>
       <c r="B108" s="19" t="s">
         <v>148</v>
@@ -15288,7 +15293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A109" s="19"/>
       <c r="B109" s="19" t="s">
         <v>150</v>
@@ -15310,7 +15315,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="55" customFormat="1" ht="16">
       <c r="A110" s="16"/>
       <c r="B110" s="16" t="s">
         <v>845</v>
@@ -15332,7 +15337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A111" s="19"/>
       <c r="B111" s="19" t="s">
         <v>153</v>
@@ -15354,7 +15359,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="55" customFormat="1" ht="16">
       <c r="A112" s="16"/>
       <c r="B112" s="16" t="s">
         <v>155</v>
@@ -15376,7 +15381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="123" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="123" customFormat="1" ht="48">
       <c r="A113" s="43"/>
       <c r="B113" s="34" t="s">
         <v>454</v>
@@ -15398,7 +15403,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="123" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="123" customFormat="1" ht="48">
       <c r="A114" s="43"/>
       <c r="B114" s="34" t="s">
         <v>455</v>
@@ -15420,7 +15425,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="122" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="122" customFormat="1" ht="272">
       <c r="A115" s="16"/>
       <c r="B115" s="33" t="s">
         <v>157</v>
@@ -15442,7 +15447,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="122" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="122" customFormat="1" ht="80">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -15454,7 +15459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A117" s="16"/>
       <c r="B117" s="16" t="s">
         <v>158</v>
@@ -15476,7 +15481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A118" s="19"/>
       <c r="B118" s="19" t="s">
         <v>160</v>
@@ -15498,7 +15503,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A119" s="19"/>
       <c r="B119" s="19" t="s">
         <v>162</v>
@@ -15520,7 +15525,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A120" s="19"/>
       <c r="B120" s="19" t="s">
         <v>164</v>
@@ -15542,7 +15547,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="122" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="122" customFormat="1" ht="48">
       <c r="A121" s="19"/>
       <c r="B121" s="34" t="s">
         <v>441</v>
@@ -15564,7 +15569,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A122" s="19"/>
       <c r="B122" s="19" t="s">
         <v>442</v>
@@ -15586,7 +15591,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A123" s="19"/>
       <c r="B123" s="19" t="s">
         <v>444</v>
@@ -15608,7 +15613,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="122" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="122" customFormat="1" ht="48">
       <c r="A124" s="19"/>
       <c r="B124" s="19" t="s">
         <v>446</v>
@@ -15630,7 +15635,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A125" s="19"/>
       <c r="B125" s="19" t="s">
         <v>447</v>
@@ -15652,7 +15657,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="122" customFormat="1">
       <c r="A126" s="19"/>
       <c r="B126" s="19" t="s">
         <v>833</v>
@@ -15674,7 +15679,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A127" s="19"/>
       <c r="B127" s="19" t="s">
         <v>461</v>
@@ -15696,7 +15701,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A128" s="19"/>
       <c r="B128" s="19" t="s">
         <v>836</v>
@@ -15718,7 +15723,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A129" s="19"/>
       <c r="B129" s="19" t="s">
         <v>837</v>
@@ -15740,7 +15745,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="122" customFormat="1" ht="16">
       <c r="A130" s="19"/>
       <c r="B130" s="18" t="s">
         <v>461</v>
@@ -15762,34 +15767,34 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="25"/>
       <c r="H131" s="113"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="25"/>
       <c r="H132" s="124"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="25"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="25"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="25"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="25"/>
@@ -15799,10 +15804,10 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
-    <hyperlink ref="H56" r:id="rId2" display="ACIS Public Inquiry Reference Guide"/>
-    <hyperlink ref="H85" r:id="rId3" display="ACIS Public Inquiry Reference Guide"/>
-    <hyperlink ref="H126" r:id="rId4" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="H56" r:id="rId2" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="H85" r:id="rId3" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="H126" r:id="rId4" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId5"/>
@@ -15815,7 +15820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -15823,21 +15828,21 @@
       <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="7" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="35" customWidth="1"/>
     <col min="8" max="8" width="66.6640625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="9" max="9" width="28.83203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="47.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -15860,7 +15865,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>166</v>
       </c>
@@ -15876,7 +15881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -15896,7 +15901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -15918,7 +15923,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -15940,7 +15945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -15962,7 +15967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -15984,7 +15989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -16006,7 +16011,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -16028,7 +16033,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -16051,7 +16056,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -16073,7 +16078,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>168</v>
@@ -16095,7 +16100,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>170</v>
@@ -16117,7 +16122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>172</v>
@@ -16139,7 +16144,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>174</v>
@@ -16161,7 +16166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>176</v>
@@ -16183,7 +16188,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>178</v>
@@ -16205,7 +16210,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>180</v>
@@ -16227,7 +16232,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="144">
       <c r="A19" s="18"/>
       <c r="B19" s="34" t="s">
         <v>182</v>
@@ -16249,7 +16254,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="144">
       <c r="A20" s="18"/>
       <c r="B20" s="34" t="s">
         <v>183</v>
@@ -16271,7 +16276,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="192">
       <c r="A21" s="18"/>
       <c r="B21" s="34" t="s">
         <v>184</v>
@@ -16293,7 +16298,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="288">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -16301,7 +16306,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>185</v>
@@ -16323,7 +16328,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
         <v>187</v>
@@ -16345,7 +16350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>189</v>
@@ -16367,7 +16372,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>190</v>
@@ -16389,7 +16394,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="128">
       <c r="A27" s="18"/>
       <c r="B27" s="34" t="s">
         <v>191</v>
@@ -16411,7 +16416,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
         <v>192</v>
@@ -16433,7 +16438,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="18"/>
       <c r="B29" s="18" t="s">
         <v>461</v>
@@ -16455,7 +16460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
         <v>193</v>
@@ -16477,7 +16482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>461</v>
@@ -16499,7 +16504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
         <v>195</v>
@@ -16521,7 +16526,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="64">
       <c r="A33" s="18"/>
       <c r="B33" s="34" t="s">
         <v>196</v>
@@ -16543,7 +16548,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="s">
         <v>197</v>
@@ -16565,7 +16570,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="64">
       <c r="A35" s="18"/>
       <c r="B35" s="34" t="s">
         <v>198</v>
@@ -16587,7 +16592,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="48">
       <c r="A36" s="18"/>
       <c r="B36" s="34" t="s">
         <v>199</v>
@@ -16609,7 +16614,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16">
       <c r="A37" s="18"/>
       <c r="B37" s="19" t="s">
         <v>200</v>
@@ -16631,7 +16636,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="96">
       <c r="A38" s="18"/>
       <c r="B38" s="49" t="s">
         <v>202</v>
@@ -16653,7 +16658,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="s">
         <v>203</v>
@@ -16675,7 +16680,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16">
       <c r="A40" s="18"/>
       <c r="B40" s="19" t="s">
         <v>205</v>
@@ -16697,7 +16702,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
         <v>207</v>
@@ -16719,7 +16724,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="96">
       <c r="A42" s="18"/>
       <c r="B42" s="34" t="s">
         <v>209</v>
@@ -16741,7 +16746,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="18"/>
       <c r="B43" s="19" t="s">
         <v>210</v>
@@ -16763,7 +16768,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="6" customFormat="1">
       <c r="A44" s="15"/>
       <c r="B44" s="7" t="s">
         <v>1199</v>
@@ -16785,7 +16790,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
         <v>211</v>
@@ -16807,7 +16812,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A46" s="15"/>
       <c r="B46" s="19" t="s">
         <v>456</v>
@@ -16829,7 +16834,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="64">
       <c r="A47" s="44"/>
       <c r="B47" s="19" t="s">
         <v>213</v>
@@ -16851,7 +16856,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16">
       <c r="A48" s="18"/>
       <c r="B48" s="19" t="s">
         <v>214</v>
@@ -16873,7 +16878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16">
       <c r="A49" s="18"/>
       <c r="B49" s="19" t="s">
         <v>216</v>
@@ -16895,7 +16900,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16">
       <c r="A50" s="18"/>
       <c r="B50" s="19" t="s">
         <v>218</v>
@@ -16917,7 +16922,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16">
       <c r="A51" s="18"/>
       <c r="B51" s="19" t="s">
         <v>457</v>
@@ -16939,7 +16944,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A52" s="44"/>
       <c r="B52" s="18" t="s">
         <v>461</v>
@@ -16961,7 +16966,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A53" s="44"/>
       <c r="B53" s="19" t="s">
         <v>458</v>
@@ -16983,7 +16988,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="16">
       <c r="A54" s="44"/>
       <c r="B54" s="19" t="s">
         <v>220</v>
@@ -17005,7 +17010,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="64">
       <c r="A55" s="18"/>
       <c r="B55" s="49" t="s">
         <v>221</v>
@@ -17027,7 +17032,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16">
       <c r="A56" s="18"/>
       <c r="B56" s="18" t="s">
         <v>222</v>
@@ -17049,7 +17054,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="64">
       <c r="A57" s="18"/>
       <c r="B57" s="49" t="s">
         <v>223</v>
@@ -17071,7 +17076,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16">
       <c r="A58" s="18"/>
       <c r="B58" s="18" t="s">
         <v>224</v>
@@ -17093,7 +17098,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="80">
       <c r="A59" s="18"/>
       <c r="B59" s="49" t="s">
         <v>226</v>
@@ -17115,7 +17120,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16">
       <c r="A60" s="18"/>
       <c r="B60" s="18" t="s">
         <v>227</v>
@@ -17137,7 +17142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16">
       <c r="A61" s="18"/>
       <c r="B61" s="18" t="s">
         <v>229</v>
@@ -17159,7 +17164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16">
       <c r="A62" s="18"/>
       <c r="B62" s="18" t="s">
         <v>231</v>
@@ -17181,7 +17186,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16">
       <c r="A63" s="18"/>
       <c r="B63" s="18" t="s">
         <v>233</v>
@@ -17203,7 +17208,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16">
       <c r="A64" s="18"/>
       <c r="B64" s="18" t="s">
         <v>235</v>
@@ -17225,7 +17230,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
         <v>237</v>
@@ -17247,7 +17252,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="18"/>
       <c r="B66" s="4" t="s">
         <v>1220</v>
@@ -17268,7 +17273,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A67" s="15"/>
       <c r="B67" s="18" t="s">
         <v>239</v>
@@ -17290,7 +17295,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16">
       <c r="A68" s="18"/>
       <c r="B68" s="18" t="s">
         <v>240</v>
@@ -17312,7 +17317,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
         <v>241</v>
@@ -17334,7 +17339,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
         <v>242</v>
@@ -17356,7 +17361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="64">
       <c r="A71" s="18"/>
       <c r="B71" s="34" t="s">
         <v>244</v>
@@ -17378,7 +17383,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A72" s="19"/>
       <c r="B72" s="19" t="s">
         <v>245</v>
@@ -17400,7 +17405,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A73" s="19"/>
       <c r="B73" s="19" t="s">
         <v>247</v>
@@ -17420,7 +17425,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A74" s="19"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19" t="s">
@@ -17442,7 +17447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="s">
         <v>251</v>
@@ -17466,7 +17471,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A76" s="19"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19" t="s">
@@ -17488,7 +17493,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16">
       <c r="A77" s="18"/>
       <c r="B77" s="18" t="s">
         <v>256</v>
@@ -17510,7 +17515,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16">
       <c r="A78" s="18"/>
       <c r="B78" s="18" t="s">
         <v>459</v>
@@ -17532,7 +17537,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16">
       <c r="A79" s="18"/>
       <c r="B79" s="18" t="s">
         <v>460</v>
@@ -17554,7 +17559,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="48">
       <c r="A80" s="18"/>
       <c r="B80" s="49" t="s">
         <v>465</v>
@@ -17576,7 +17581,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
         <v>467</v>
@@ -17598,7 +17603,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="96">
       <c r="A82" s="18"/>
       <c r="B82" s="49" t="s">
         <v>470</v>
@@ -17620,7 +17625,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="16">
       <c r="A83" s="18"/>
       <c r="B83" s="15" t="s">
         <v>471</v>
@@ -17642,7 +17647,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="6" customFormat="1" ht="48">
       <c r="A84" s="15"/>
       <c r="B84" s="167" t="s">
         <v>707</v>
@@ -17664,7 +17669,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="6" customFormat="1" ht="64">
       <c r="A85" s="15"/>
       <c r="B85" s="88" t="s">
         <v>829</v>
@@ -17686,7 +17691,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="6" customFormat="1" ht="96">
       <c r="A86" s="15"/>
       <c r="B86" s="34" t="s">
         <v>830</v>
@@ -17708,7 +17713,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="16">
       <c r="A87" s="18"/>
       <c r="B87" s="15" t="s">
         <v>461</v>
@@ -17730,7 +17735,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="7" customFormat="1">
       <c r="A88" s="16"/>
       <c r="B88" s="4"/>
       <c r="C88" s="8"/>
@@ -17740,16 +17745,16 @@
       <c r="G88" s="35"/>
       <c r="H88" s="51"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="D89" s="31"/>
       <c r="E89" s="31"/>
       <c r="H89" s="99"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
     </row>
@@ -17758,7 +17763,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -17771,7 +17776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -17779,21 +17784,21 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" style="51" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="32" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -17816,7 +17821,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>258</v>
       </c>
@@ -17832,7 +17837,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -17852,7 +17857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -17874,7 +17879,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -17896,7 +17901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -17918,7 +17923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -17940,7 +17945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -17962,7 +17967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -17984,7 +17989,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -18007,7 +18012,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -18029,7 +18034,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>260</v>
@@ -18051,7 +18056,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>262</v>
@@ -18073,7 +18078,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>264</v>
@@ -18095,7 +18100,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>266</v>
@@ -18117,7 +18122,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
         <v>461</v>
@@ -18139,7 +18144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>267</v>
@@ -18161,7 +18166,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>269</v>
@@ -18183,7 +18188,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>271</v>
@@ -18205,7 +18210,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>273</v>
@@ -18227,7 +18232,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>275</v>
@@ -18249,7 +18254,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="18"/>
       <c r="B22" s="18" t="s">
         <v>461</v>
@@ -18271,7 +18276,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>277</v>
@@ -18293,7 +18298,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
         <v>279</v>
@@ -18315,7 +18320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>281</v>
@@ -18337,7 +18342,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>283</v>
@@ -18359,7 +18364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
         <v>285</v>
@@ -18381,7 +18386,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
         <v>287</v>
@@ -18403,7 +18408,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
         <v>289</v>
@@ -18425,7 +18430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
         <v>291</v>
@@ -18447,7 +18452,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
         <v>293</v>
@@ -18469,7 +18474,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="16">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>295</v>
@@ -18491,7 +18496,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="18"/>
       <c r="B33" s="18" t="s">
         <v>297</v>
@@ -18513,7 +18518,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>299</v>
@@ -18535,7 +18540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16">
       <c r="A35" s="18"/>
       <c r="B35" s="18" t="s">
         <v>301</v>
@@ -18557,7 +18562,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A36" s="19"/>
       <c r="B36" s="19" t="s">
         <v>303</v>
@@ -18579,7 +18584,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A37" s="19"/>
       <c r="B37" s="18" t="s">
         <v>461</v>
@@ -18601,7 +18606,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="H39" s="99"/>
     </row>
   </sheetData>
@@ -18609,7 +18614,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -18622,7 +18627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -18630,21 +18635,21 @@
       <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="51.21875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="32.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -18667,7 +18672,7 @@
       </c>
       <c r="I1" s="129"/>
     </row>
-    <row r="2" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>305</v>
       </c>
@@ -18683,7 +18688,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -18703,7 +18708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -18725,7 +18730,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -18747,7 +18752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -18769,7 +18774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -18791,7 +18796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -18813,7 +18818,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -18835,7 +18840,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -18858,7 +18863,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -18880,7 +18885,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>307</v>
@@ -18902,7 +18907,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
         <v>309</v>
@@ -18924,7 +18929,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -18946,7 +18951,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -18968,7 +18973,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>317</v>
@@ -18990,7 +18995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>319</v>
@@ -19012,7 +19017,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -19034,7 +19039,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -19056,7 +19061,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>325</v>
@@ -19078,7 +19083,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>327</v>
@@ -19100,7 +19105,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19" t="s">
@@ -19122,7 +19127,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19" t="s">
@@ -19144,7 +19149,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="16">
       <c r="A24" s="19"/>
       <c r="B24" s="18" t="s">
         <v>461</v>
@@ -19166,7 +19171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="H26" s="99"/>
     </row>
   </sheetData>
@@ -19174,7 +19179,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -19187,7 +19192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -19195,21 +19200,21 @@
       <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="48.77734375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="48.83203125" style="51" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="10" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="176" t="s">
         <v>974</v>
       </c>
@@ -19234,7 +19239,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="41" t="s">
         <v>1047</v>
       </c>
@@ -19250,7 +19255,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>4</v>
@@ -19270,7 +19275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="48"/>
       <c r="C4" s="40" t="s">
@@ -19292,7 +19297,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="48"/>
       <c r="C5" s="40" t="s">
@@ -19314,7 +19319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="48"/>
       <c r="C6" s="40" t="s">
@@ -19336,7 +19341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
       <c r="C7" s="40" t="s">
@@ -19358,7 +19363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="B8" s="48"/>
       <c r="C8" s="40" t="s">
@@ -19380,7 +19385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="B9" s="48"/>
       <c r="C9" s="40" t="s">
@@ -19402,7 +19407,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="48"/>
       <c r="C10" s="40" t="s">
@@ -19425,7 +19430,7 @@
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="40"/>
       <c r="B11" s="48"/>
       <c r="C11" s="40" t="s">
@@ -19447,7 +19452,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="19"/>
       <c r="B12" s="77" t="s">
         <v>1001</v>
@@ -19469,7 +19474,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="19"/>
       <c r="B13" s="77" t="s">
         <v>1003</v>
@@ -19491,7 +19496,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="64">
       <c r="A14" s="18"/>
       <c r="B14" s="77" t="s">
         <v>1006</v>
@@ -19513,7 +19518,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="80">
       <c r="A15" s="18"/>
       <c r="B15" s="77" t="s">
         <v>1007</v>
@@ -19535,7 +19540,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A16" s="15"/>
       <c r="B16" s="105" t="s">
         <v>1008</v>
@@ -19557,7 +19562,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="18"/>
       <c r="B17" s="77" t="s">
         <v>1010</v>
@@ -19579,7 +19584,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="48">
       <c r="A18" s="18"/>
       <c r="B18" s="77" t="s">
         <v>1011</v>
@@ -19601,7 +19606,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="18"/>
       <c r="B19" s="77" t="s">
         <v>1012</v>
@@ -19623,7 +19628,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="48">
       <c r="A20" s="18"/>
       <c r="B20" s="77" t="s">
         <v>1014</v>
@@ -19645,7 +19650,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="18"/>
       <c r="B21" s="77" t="s">
         <v>1015</v>
@@ -19667,7 +19672,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="18"/>
       <c r="B22" s="77" t="s">
         <v>1017</v>
@@ -19689,7 +19694,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="48">
       <c r="A23" s="19"/>
       <c r="B23" s="77" t="s">
         <v>1019</v>
@@ -19711,7 +19716,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="1"/>
       <c r="B24" s="77" t="s">
         <v>1020</v>
@@ -19733,7 +19738,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="48">
       <c r="A25" s="1"/>
       <c r="B25" s="77" t="s">
         <v>1022</v>
@@ -19755,7 +19760,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="48">
       <c r="A26" s="1"/>
       <c r="B26" s="77" t="s">
         <v>1023</v>
@@ -19777,7 +19782,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="48">
       <c r="A27" s="1"/>
       <c r="B27" s="77" t="s">
         <v>1024</v>
@@ -19799,7 +19804,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="1"/>
       <c r="B28" s="77" t="s">
         <v>461</v>
@@ -19821,7 +19826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="1"/>
       <c r="B29" s="77" t="s">
         <v>1025</v>
@@ -19843,7 +19848,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="64">
       <c r="A30" s="1"/>
       <c r="B30" s="77" t="s">
         <v>1028</v>
@@ -19865,7 +19870,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="64">
       <c r="A31" s="1"/>
       <c r="B31" s="77" t="s">
         <v>1029</v>
@@ -19887,7 +19892,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="48">
       <c r="A32" s="1"/>
       <c r="B32" s="77" t="s">
         <v>1030</v>
@@ -19909,7 +19914,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="48">
       <c r="A33" s="1"/>
       <c r="B33" s="77" t="s">
         <v>1031</v>
@@ -19931,7 +19936,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="48">
       <c r="A34" s="1"/>
       <c r="B34" s="77" t="s">
         <v>1032</v>
@@ -19953,7 +19958,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
@@ -19963,7 +19968,7 @@
       <c r="G35" s="76"/>
       <c r="H35" s="92"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="H36" s="99"/>
     </row>
   </sheetData>
@@ -19971,8 +19976,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="'Table of Contents'!A1" display="Return to Table of Contents"/>
-    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide"/>
+    <hyperlink ref="I1" location="'Table of Contents'!A1" display="Return to Table of Contents" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId1" display="ACIS Public Inquiry Reference Guide" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
@@ -19985,14 +19990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <RoutingRuleDescription xmlns="http://schemas.microsoft.com/sharepoint/v3">RPA</RoutingRuleDescription>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C483AC42089A2D4C8AB4B758856C0FD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a102cee845280263b50ff63fab424f71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbe837cd23650b99e16226bb4678f236" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20120,7 +20117,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20129,23 +20126,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C87F02F-DA0D-4561-AAFC-4238741FDE18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <RoutingRuleDescription xmlns="http://schemas.microsoft.com/sharepoint/v3">RPA</RoutingRuleDescription>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABA3F508-0E67-4A51-B60B-704C8E8DD425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20163,10 +20152,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8C22E2-658F-4A7F-930C-0976DCA553F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C87F02F-DA0D-4561-AAFC-4238741FDE18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>